--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\test3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CAAB01-F0E6-4F2D-A203-F5F62C8032E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB188C7-96B8-42AC-AD7E-D9A7F6260A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D44CA3D7-AC90-4267-AAA7-A5EF79B47B24}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7875" activeTab="9" xr2:uid="{D44CA3D7-AC90-4267-AAA7-A5EF79B47B24}"/>
   </bookViews>
   <sheets>
-    <sheet name="12a1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TO" sheetId="2" r:id="rId1"/>
+    <sheet name="VL" sheetId="1" r:id="rId2"/>
+    <sheet name="HH" sheetId="3" r:id="rId3"/>
+    <sheet name="SH" sheetId="4" r:id="rId4"/>
+    <sheet name="NV" sheetId="5" r:id="rId5"/>
+    <sheet name="LS" sheetId="6" r:id="rId6"/>
+    <sheet name="DL" sheetId="7" r:id="rId7"/>
+    <sheet name="GD" sheetId="8" r:id="rId8"/>
+    <sheet name="TH" sheetId="9" r:id="rId9"/>
+    <sheet name="AV" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,24 +43,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
-  <si>
-    <t>Tên đăng nhập</t>
-  </si>
-  <si>
-    <t>mật khẩu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="20">
   <si>
     <t>mã giáo viên</t>
-  </si>
-  <si>
-    <t>gv1</t>
-  </si>
-  <si>
-    <t>gv2</t>
-  </si>
-  <si>
-    <t>admin2</t>
   </si>
   <si>
     <t>mã môn</t>
@@ -77,6 +70,39 @@
   </si>
   <si>
     <t>điểm học kì</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>mã lớp</t>
+  </si>
+  <si>
+    <t>12a1</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>AV</t>
   </si>
 </sst>
 </file>
@@ -427,11 +453,369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF295C1-D844-46B9-9B13-6D5183D4D6CB}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47C88C0-C903-4140-B8F4-1B781020591A}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2014540001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>412015001</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2014540002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>412015001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2015540001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>412015001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2015540002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>412015001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C654F2E-DE40-44F1-844E-90F55AB94F5B}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>2014540001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>542012002</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>2014540002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>542012002</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>2015540001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>542012002</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>2015540002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>542012002</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF295C1-D844-46B9-9B13-6D5183D4D6CB}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,127 +829,165 @@
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2014540001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>412014001</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2014540002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>412014001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2015540001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>412014001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+      <c r="B5">
+        <v>2015540002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>412014001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -574,63 +996,1256 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47C88C0-C903-4140-B8F4-1B781020591A}">
-  <dimension ref="A1:C4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A52EE2-92E8-42E1-BB9A-3A8037D204BE}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G5" sqref="A1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>2014540001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>412013001</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2014540002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>412015001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2015540001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>412015001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>2015540002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>412015001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9B029A-27E4-475A-9869-9E77EC165D5E}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>2014540001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>412013002</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2014540002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>412013002</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2015540001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>412013002</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2015540002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>412013002</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F79CB4-6572-4514-8F45-106AE097A65A}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2">
+        <v>2014540001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>442014001</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2014540002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>412015001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>2015540001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>412015001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>2015540002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>412015001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9711AB82-C086-4DA7-9136-192F53AD9A2D}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>2014540001</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>442015002</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3">
+        <v>2014540002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>442015002</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2015540001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>442015002</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>2015540002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>442015002</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44655A72-97C3-4975-B242-BEC562083491}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2014540001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>442015001</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2014540002</v>
+      </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>442015001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>2015540001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>442015001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>2015540002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>442015001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E4C8B1-8B1B-4A3B-A6C0-28A03BA63AEB}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>2014540001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>442016001</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>2014540002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>442016001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>2015540001</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>442016001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>2015540002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>442016001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FB88A9-BF6C-4C92-AA3D-D82EA3FD9BCC}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="A1:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>2014540001</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>542012001</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:H5" ca="1" si="0">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>2014540002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>542012001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
       <c r="B4">
-        <v>2</v>
+        <v>2015540001</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>542012001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>2015540002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>542012001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
